--- a/bh3/545356057983341126_2021-07-09_15-00-02.xlsx
+++ b/bh3/545356057983341126_2021-07-09_15-00-02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4884871582</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-11 08:41:30</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44388.36215277778</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -610,10 +624,8 @@
           <t>4873884655</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:08:50</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44387.50613425926</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -696,10 +708,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:51:28</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44387.45240740741</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -794,10 +804,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:51:16</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44387.45226851852</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -869,10 +877,8 @@
           <t>4873884655</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-10 01:15:40</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44387.0525462963</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -974,10 +980,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-09 22:02:11</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44386.91818287037</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1049,10 +1053,8 @@
           <t>4873993505</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:03:24</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44386.79402777777</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1112,10 +1114,8 @@
           <t>4873137400</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:49:50</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44386.78460648148</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1179,10 +1179,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:49:24</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44386.78430555556</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1277,10 +1275,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:22:27</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44386.76559027778</v>
       </c>
       <c r="I11" t="n">
         <v>2</v>
@@ -1344,10 +1340,8 @@
           <t>4874058528</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:15:53</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44386.7610300926</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1411,10 +1405,8 @@
           <t>4873137400</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:07:02</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44386.75488425926</v>
       </c>
       <c r="I13" t="n">
         <v>3</v>
@@ -1482,10 +1474,8 @@
           <t>4874064380</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:06:56</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44386.75481481481</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1545,10 +1535,8 @@
           <t>4874058528</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:05:37</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44386.75390046297</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1608,10 +1596,8 @@
           <t>4874049537</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:04:54</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44386.75340277778</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1671,10 +1657,8 @@
           <t>4874047443</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:04:01</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44386.75278935185</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1734,10 +1718,8 @@
           <t>4873993505</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:02:19</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44386.75160879629</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1809,10 +1791,8 @@
           <t>4873137400</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:02:11</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44386.7515162037</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1873,10 +1853,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:01:03</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44386.75072916667</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1944,10 +1922,8 @@
           <t>4874011350</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:58:24</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44386.74888888889</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2007,10 +1983,8 @@
           <t>4873994855</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:57:06</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44386.74798611111</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2070,10 +2044,8 @@
           <t>4873993505</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:56:30</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44386.74756944444</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2133,10 +2105,8 @@
           <t>4873991607</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:55:40</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44386.74699074074</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2200,10 +2170,8 @@
           <t>4873987810</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:55:26</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44386.7468287037</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2263,10 +2231,8 @@
           <t>4873990171</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:55:03</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44386.7465625</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2326,10 +2292,8 @@
           <t>4873978174</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:54:10</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44386.74594907407</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2389,10 +2353,8 @@
           <t>4873972862</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:53:09</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44386.74524305556</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2452,10 +2414,8 @@
           <t>4873971820</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:52:40</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44386.74490740741</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2515,10 +2475,8 @@
           <t>4873966295</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:51:28</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44386.74407407407</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2578,10 +2536,8 @@
           <t>4873960498</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:50:55</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44386.74369212963</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2649,10 +2605,8 @@
           <t>4873949650</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:50:43</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44386.74355324074</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2712,10 +2666,8 @@
           <t>4873955772</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:49:55</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44386.74299768519</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2775,10 +2727,8 @@
           <t>4873939487</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:48:21</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44386.74190972222</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2838,10 +2788,8 @@
           <t>4873900402</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:41:46</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44386.73733796296</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2901,10 +2849,8 @@
           <t>4873884655</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:40:01</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44386.73612268519</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -2964,10 +2910,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:33:25</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44386.73153935185</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3027,10 +2971,8 @@
           <t>4873796729</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:25:49</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44386.72626157408</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3094,10 +3036,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:09:35</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44386.71498842593</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3173,10 +3113,8 @@
           <t>4873691691</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:08:52</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44386.71449074074</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3252,10 +3190,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:55:42</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44386.70534722223</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -3319,10 +3255,8 @@
           <t>4872995176</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:48:15</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44386.70017361111</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3390,10 +3324,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:45:54</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44386.69854166666</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3453,10 +3385,8 @@
           <t>4873424723</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:45:07</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44386.69799768519</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
@@ -3532,10 +3462,8 @@
           <t>4873508964</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:39:03</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44386.69378472222</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3607,10 +3535,8 @@
           <t>4873463957</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:31:08</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44386.68828703704</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3686,10 +3612,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:30:48</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44386.68805555555</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
@@ -3753,10 +3677,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:30:31</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44386.68785879629</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3832,10 +3754,8 @@
           <t>4873424723</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:23:36</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44386.68305555556</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -3911,10 +3831,8 @@
           <t>4873400931</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:18:40</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44386.67962962963</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -3978,10 +3896,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:06:07</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44386.67091435185</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4041,10 +3957,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:03:39</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44386.66920138889</v>
       </c>
       <c r="I52" t="n">
         <v>9</v>
@@ -4123,10 +4037,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:02:49</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44386.66862268518</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4194,10 +4106,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:01:27</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44386.66767361111</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4265,10 +4175,8 @@
           <t>4873302772</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:00:50</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44386.66724537037</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -4336,10 +4244,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:56:56</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44386.66453703704</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4416,10 +4322,8 @@
           <t>4872986650</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:55:51</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44386.66378472222</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4479,10 +4383,8 @@
           <t>4873263268</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:55:07</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44386.66327546296</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
@@ -4546,10 +4448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:54:12</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44386.66263888889</v>
       </c>
       <c r="I59" t="n">
         <v>6</v>
@@ -4625,10 +4525,8 @@
           <t>4873249944</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:53:12</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44386.66194444444</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4696,10 +4594,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:53:04</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44386.66185185185</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4771,10 +4667,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:48:35</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44386.65873842593</v>
       </c>
       <c r="I62" t="n">
         <v>1</v>
@@ -4838,10 +4732,8 @@
           <t>4873240188</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:48:30</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44386.65868055556</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -4901,10 +4793,8 @@
           <t>4873224082</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:47:06</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44386.65770833333</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -4980,10 +4870,8 @@
           <t>4873207075</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:43:07</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44386.65494212963</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5059,10 +4947,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:41:00</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44386.65347222222</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5126,10 +5012,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:39:23</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44386.65234953703</v>
       </c>
       <c r="I67" t="n">
         <v>9</v>
@@ -5189,10 +5073,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:37:43</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44386.65119212963</v>
       </c>
       <c r="I68" t="n">
         <v>1</v>
@@ -5268,10 +5150,8 @@
           <t>4873177464</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:37:41</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44386.65116898148</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5347,10 +5227,8 @@
           <t>4873137400</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:36:13</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44386.65015046296</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5422,10 +5300,8 @@
           <t>4873155435</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:33:34</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44386.64831018518</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5489,10 +5365,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:33:31</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44386.64827546296</v>
       </c>
       <c r="I72" t="n">
         <v>32</v>
@@ -5560,10 +5434,8 @@
           <t>4873137400</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:32:03</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44386.64725694444</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5628,10 +5500,8 @@
           <t>4873137400</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:30:44</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44386.64634259259</v>
       </c>
       <c r="I74" t="n">
         <v>12</v>
@@ -5695,10 +5565,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:30:28</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44386.64615740741</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5774,10 +5642,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:29:46</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44386.6456712963</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5853,10 +5719,8 @@
           <t>4873132327</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:29:08</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44386.64523148148</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -5921,10 +5785,8 @@
           <t>4873111507</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:25:44</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44386.64287037037</v>
       </c>
       <c r="I78" t="n">
         <v>7</v>
@@ -5996,10 +5858,8 @@
           <t>4873050866</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:24:48</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44386.64222222222</v>
       </c>
       <c r="I79" t="n">
         <v>3</v>
@@ -6075,10 +5935,8 @@
           <t>4873095351</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:22:16</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44386.64046296296</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6154,10 +6012,8 @@
           <t>4873078363</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:20:35</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44386.63929398148</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
@@ -6221,10 +6077,8 @@
           <t>4873080690</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:19:40</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44386.63865740741</v>
       </c>
       <c r="I82" t="n">
         <v>1</v>
@@ -6300,10 +6154,8 @@
           <t>4873085082</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:19:38</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44386.63863425926</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6379,10 +6231,8 @@
           <t>4873075869</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:19:14</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44386.63835648148</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6458,10 +6308,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:17:42</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44386.63729166667</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6537,10 +6385,8 @@
           <t>4872995176</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:15:49</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44386.6359837963</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6616,10 +6462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:15:48</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44386.63597222222</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6695,10 +6539,8 @@
           <t>4873050866</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:14:14</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44386.63488425926</v>
       </c>
       <c r="I88" t="n">
         <v>1</v>
@@ -6774,10 +6616,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:13:33</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44386.63440972222</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6841,10 +6681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:13:25</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44386.63431712963</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6916,10 +6754,8 @@
           <t>4873040099</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:12:49</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44386.63390046296</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -6995,10 +6831,8 @@
           <t>4873040099</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:11:14</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44386.63280092592</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7070,10 +6904,8 @@
           <t>4873019705</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:10:45</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44386.63246527778</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7149,10 +6981,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:10:31</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44386.63230324074</v>
       </c>
       <c r="I94" t="n">
         <v>129</v>
@@ -7216,10 +7046,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:10:22</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44386.63219907408</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7291,10 +7119,8 @@
           <t>4873022363</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:09:24</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44386.63152777778</v>
       </c>
       <c r="I96" t="n">
         <v>9</v>
@@ -7362,10 +7188,8 @@
           <t>4873016486</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:08:55</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44386.63119212963</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
@@ -7441,10 +7265,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:08:27</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44386.63086805555</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7520,10 +7342,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:08:12</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44386.63069444444</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7592,10 +7412,8 @@
           <t>4872986650</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:06:59</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44386.62984953704</v>
       </c>
       <c r="I100" t="n">
         <v>3</v>
@@ -7671,10 +7489,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:06:13</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44386.62931712963</v>
       </c>
       <c r="I101" t="n">
         <v>2</v>
@@ -7750,10 +7566,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:04:57</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44386.6284375</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7813,10 +7627,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:04:19</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44386.62799768519</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7892,10 +7704,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:04:12</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44386.62791666666</v>
       </c>
       <c r="I104" t="n">
         <v>2</v>
@@ -7971,10 +7781,8 @@
           <t>4872986650</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:04:09</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44386.62788194444</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8046,10 +7854,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:04:02</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44386.62780092593</v>
       </c>
       <c r="I106" t="n">
         <v>38</v>
@@ -8125,10 +7931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:03:50</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44386.62766203703</v>
       </c>
       <c r="I107" t="n">
         <v>1</v>
@@ -8204,10 +8008,8 @@
           <t>4872995176</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:03:43</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44386.62758101852</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8279,10 +8081,8 @@
           <t>4872986650</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:03:27</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44386.62739583333</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8358,10 +8158,8 @@
           <t>4872995176</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:03:20</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44386.62731481482</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
@@ -8425,10 +8223,8 @@
           <t>4872995176</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:02:56</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44386.62703703704</v>
       </c>
       <c r="I111" t="n">
         <v>29</v>
@@ -8504,10 +8300,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:02:45</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44386.62690972222</v>
       </c>
       <c r="I112" t="n">
         <v>99</v>
@@ -8583,10 +8377,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:02:36</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44386.62680555556</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8662,10 +8454,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:02:31</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44386.62674768519</v>
       </c>
       <c r="I114" t="n">
         <v>1</v>
@@ -8730,10 +8520,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:02:30</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44386.62673611111</v>
       </c>
       <c r="I115" t="n">
         <v>2</v>
@@ -8806,10 +8594,8 @@
           <t>4872974825</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:02:25</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44386.62667824074</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8881,10 +8667,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:02:13</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44386.62653935186</v>
       </c>
       <c r="I117" t="n">
         <v>151</v>
@@ -8944,10 +8728,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:01:55</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44386.62633101852</v>
       </c>
       <c r="I118" t="n">
         <v>4</v>
@@ -9023,10 +8805,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:01:49</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44386.62626157407</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9086,10 +8866,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:01:39</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44386.62614583333</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9165,10 +8943,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:01:33</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44386.62607638889</v>
       </c>
       <c r="I121" t="n">
         <v>5</v>
@@ -9236,10 +9012,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:01:18</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44386.62590277778</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9315,10 +9089,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:01:01</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44386.62570601852</v>
       </c>
       <c r="I123" t="n">
         <v>429</v>
@@ -9390,10 +9162,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:00:41</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44386.62547453704</v>
       </c>
       <c r="I124" t="n">
         <v>9</v>
@@ -9453,10 +9223,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:00:40</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44386.62546296296</v>
       </c>
       <c r="I125" t="n">
         <v>24</v>
@@ -9524,10 +9292,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:00:30</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44386.62534722222</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9603,10 +9369,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:00:20</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44386.62523148148</v>
       </c>
       <c r="I127" t="n">
         <v>1</v>
@@ -9674,10 +9438,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:00:18</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44386.62520833333</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
